--- a/inputs/primary-results/raw/SCJ Results.xlsx
+++ b/inputs/primary-results/raw/SCJ Results.xlsx
@@ -23,10 +23,10 @@
     <x:t>State of Montana</x:t>
   </x:si>
   <x:si>
-    <x:t>Precincts 193 of 307 Reporting (Precincts Partially Reported: 100/307)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Downloaded at 6/8/2022 9:59:17 AM</x:t>
+    <x:t>Precincts 307 of 307 Reporting (Precincts Partially Reported: 0/307)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Downloaded at 7/19/2022 9:10:38 AM</x:t>
   </x:si>
   <x:si>
     <x:t>SUPREME COURT JUSTICE #1</x:t>
@@ -595,7 +595,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="4" width="12.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -639,10 +639,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1852</x:v>
+        <x:v>1863</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>430</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -672,7 +672,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>1331</x:v>
+        <x:v>1333</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>380</x:v>
@@ -683,7 +683,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="1" t="n">
-        <x:v>2136</x:v>
+        <x:v>2137</x:v>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>753</x:v>
@@ -705,10 +705,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>12554</x:v>
+        <x:v>12574</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>3398</x:v>
+        <x:v>3400</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -727,10 +727,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>2179</x:v>
+        <x:v>2186</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>638</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -749,7 +749,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>1704</x:v>
+        <x:v>1708</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>292</x:v>
@@ -760,10 +760,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1724</x:v>
+        <x:v>1738</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>687</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -782,10 +782,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>1375</x:v>
+        <x:v>2673</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>332</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -793,10 +793,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>17778</x:v>
+        <x:v>18017</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>5294</x:v>
+        <x:v>5377</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -804,10 +804,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>17421</x:v>
+        <x:v>17519</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>5664</x:v>
+        <x:v>5708</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -826,10 +826,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>1206</x:v>
+        <x:v>1303</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>434</x:v>
+        <x:v>467</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -848,7 +848,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C27" s="1" t="n">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>301</x:v>
@@ -859,10 +859,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>1626</x:v>
+        <x:v>2070</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>431</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -870,10 +870,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>3038</x:v>
+        <x:v>3078</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>641</x:v>
+        <x:v>650</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -892,10 +892,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>5090</x:v>
+        <x:v>5153</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1674</x:v>
+        <x:v>1702</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -903,10 +903,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>11506</x:v>
+        <x:v>15187</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>2481</x:v>
+        <x:v>3385</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -925,10 +925,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>3375</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1227</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -936,10 +936,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1987</x:v>
+        <x:v>2019</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>585</x:v>
+        <x:v>603</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -972,7 +972,7 @@
         <x:v>831</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>271</x:v>
+        <x:v>326</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -980,10 +980,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>18284</x:v>
+        <x:v>20115</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>6854</x:v>
+        <x:v>7791</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -1002,10 +1002,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>3085</x:v>
+        <x:v>3107</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>1115</x:v>
+        <x:v>1129</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1035,10 +1035,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>1140</x:v>
+        <x:v>1151</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
@@ -1079,10 +1079,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>8822</x:v>
+        <x:v>8911</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>2838</x:v>
+        <x:v>2855</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
@@ -1090,10 +1090,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>1543</x:v>
+        <x:v>1557</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>456</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4">
@@ -1112,10 +1112,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>1157</x:v>
+        <x:v>1163</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
@@ -1123,10 +1123,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>2997</x:v>
+        <x:v>3012</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>923</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
@@ -1134,7 +1134,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
         <x:v>168</x:v>
@@ -1145,10 +1145,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>5928</x:v>
+        <x:v>5954</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>1772</x:v>
+        <x:v>1781</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
@@ -1159,7 +1159,7 @@
         <x:v>1860</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
@@ -1167,10 +1167,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>991</x:v>
+        <x:v>997</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
@@ -1189,10 +1189,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>818</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>249</x:v>
+        <x:v>251</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
@@ -1225,7 +1225,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="D61" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
@@ -1244,10 +1244,10 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>27681</x:v>
+        <x:v>28985</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>10282</x:v>
+        <x:v>10844</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4">
@@ -1255,10 +1255,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>176346</x:v>
+        <x:v>189101</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>54753</x:v>
+        <x:v>59168</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1281,7 +1281,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="61.480625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="59.350625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="13.610625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="22.090625" style="0" customWidth="1"/>
@@ -1330,13 +1330,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>1287</x:v>
+        <x:v>1295</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1372,13 +1372,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>524</x:v>
       </x:c>
       <x:c r="E11" s="1" t="n">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1414,13 +1414,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="1" t="n">
-        <x:v>7547</x:v>
+        <x:v>7555</x:v>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>3265</x:v>
+        <x:v>3271</x:v>
       </x:c>
       <x:c r="E14" s="1" t="n">
-        <x:v>5582</x:v>
+        <x:v>5593</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1442,13 +1442,13 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="1" t="n">
-        <x:v>1116</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>1343</x:v>
+        <x:v>1346</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1470,13 +1470,13 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="E18" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>880</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1484,13 +1484,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
-        <x:v>1337</x:v>
+        <x:v>1349</x:v>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>627</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="E19" s="1" t="n">
-        <x:v>540</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1512,13 +1512,13 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="1" t="n">
-        <x:v>510</x:v>
+        <x:v>1007</x:v>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>304</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="E21" s="1" t="n">
-        <x:v>972</x:v>
+        <x:v>1867</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1526,13 +1526,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="1" t="n">
-        <x:v>9773</x:v>
+        <x:v>9874</x:v>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>3542</x:v>
+        <x:v>3594</x:v>
       </x:c>
       <x:c r="E22" s="1" t="n">
-        <x:v>11293</x:v>
+        <x:v>11476</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1540,13 +1540,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="1" t="n">
-        <x:v>14112</x:v>
+        <x:v>14200</x:v>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>2214</x:v>
+        <x:v>2228</x:v>
       </x:c>
       <x:c r="E23" s="1" t="n">
-        <x:v>8354</x:v>
+        <x:v>8403</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1568,13 +1568,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="1" t="n">
-        <x:v>928</x:v>
+        <x:v>1001</x:v>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>287</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="E25" s="1" t="n">
-        <x:v>512</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1610,13 +1610,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="1" t="n">
-        <x:v>836</x:v>
+        <x:v>1152</x:v>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>527</x:v>
       </x:c>
       <x:c r="E28" s="1" t="n">
-        <x:v>749</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1624,13 +1624,13 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="1" t="n">
-        <x:v>1572</x:v>
+        <x:v>1583</x:v>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>889</x:v>
       </x:c>
       <x:c r="E29" s="1" t="n">
-        <x:v>1332</x:v>
+        <x:v>1355</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1652,13 +1652,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C31" s="1" t="n">
-        <x:v>3168</x:v>
+        <x:v>3209</x:v>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>1095</x:v>
+        <x:v>1108</x:v>
       </x:c>
       <x:c r="E31" s="1" t="n">
-        <x:v>2952</x:v>
+        <x:v>2995</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1666,13 +1666,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="1" t="n">
-        <x:v>6644</x:v>
+        <x:v>8818</x:v>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>5002</x:v>
+        <x:v>6424</x:v>
       </x:c>
       <x:c r="E32" s="1" t="n">
-        <x:v>2941</x:v>
+        <x:v>4181</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1694,13 +1694,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1743</x:v>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>960</x:v>
       </x:c>
       <x:c r="E34" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>2108</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
@@ -1708,13 +1708,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C35" s="1" t="n">
-        <x:v>1268</x:v>
+        <x:v>1298</x:v>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>392</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E35" s="1" t="n">
-        <x:v>1061</x:v>
+        <x:v>1074</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
@@ -1753,7 +1753,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
         <x:v>572</x:v>
@@ -1764,13 +1764,13 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C39" s="1" t="n">
-        <x:v>17146</x:v>
+        <x:v>19241</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>3249</x:v>
+        <x:v>3527</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>6444</x:v>
+        <x:v>7094</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -1792,13 +1792,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C41" s="1" t="n">
-        <x:v>2292</x:v>
+        <x:v>2315</x:v>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="E41" s="1" t="n">
-        <x:v>1768</x:v>
+        <x:v>1785</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
@@ -1834,13 +1834,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C44" s="1" t="n">
-        <x:v>616</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="E44" s="1" t="n">
-        <x:v>605</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
@@ -1851,7 +1851,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E45" s="1" t="n">
         <x:v>397</x:v>
@@ -1890,13 +1890,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C48" s="1" t="n">
-        <x:v>4928</x:v>
+        <x:v>4947</x:v>
       </x:c>
       <x:c r="D48" s="1" t="n">
-        <x:v>1732</x:v>
+        <x:v>1751</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>5722</x:v>
+        <x:v>5793</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
@@ -1904,13 +1904,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="C49" s="1" t="n">
-        <x:v>704</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>476</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>831</x:v>
+        <x:v>834</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
@@ -1932,13 +1932,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="C51" s="1" t="n">
-        <x:v>640</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="D51" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>757</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
@@ -1946,13 +1946,13 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="C52" s="1" t="n">
-        <x:v>1278</x:v>
+        <x:v>1287</x:v>
       </x:c>
       <x:c r="D52" s="1" t="n">
-        <x:v>590</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="E52" s="1" t="n">
-        <x:v>2253</x:v>
+        <x:v>2266</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
@@ -1960,10 +1960,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="C53" s="1" t="n">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="D53" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="E53" s="1" t="n">
         <x:v>334</x:v>
@@ -1974,13 +1974,13 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="C54" s="1" t="n">
-        <x:v>4591</x:v>
+        <x:v>4611</x:v>
       </x:c>
       <x:c r="D54" s="1" t="n">
-        <x:v>1803</x:v>
+        <x:v>1808</x:v>
       </x:c>
       <x:c r="E54" s="1" t="n">
-        <x:v>1679</x:v>
+        <x:v>1690</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
@@ -1988,13 +1988,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C55" s="1" t="n">
-        <x:v>1058</x:v>
+        <x:v>1059</x:v>
       </x:c>
       <x:c r="D55" s="1" t="n">
         <x:v>263</x:v>
       </x:c>
       <x:c r="E55" s="1" t="n">
-        <x:v>1192</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
@@ -2002,13 +2002,13 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="C56" s="1" t="n">
-        <x:v>506</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="E56" s="1" t="n">
-        <x:v>645</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
@@ -2030,13 +2030,13 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C58" s="1" t="n">
-        <x:v>359</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="D58" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="E58" s="1" t="n">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
@@ -2100,13 +2100,13 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C63" s="1" t="n">
-        <x:v>23117</x:v>
+        <x:v>24207</x:v>
       </x:c>
       <x:c r="D63" s="1" t="n">
-        <x:v>4210</x:v>
+        <x:v>4413</x:v>
       </x:c>
       <x:c r="E63" s="1" t="n">
-        <x:v>13857</x:v>
+        <x:v>14578</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
@@ -2114,13 +2114,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="C64" s="1" t="n">
-        <x:v>118030</x:v>
+        <x:v>126423</x:v>
       </x:c>
       <x:c r="D64" s="1" t="n">
-        <x:v>37451</x:v>
+        <x:v>40872</x:v>
       </x:c>
       <x:c r="E64" s="1" t="n">
-        <x:v>89242</x:v>
+        <x:v>95607</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
